--- a/Toucan/trim verification.xlsx
+++ b/Toucan/trim verification.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="uctrl.output" localSheetId="0">Sheet1!$B$8:$H$20</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,8 +26,26 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="uctrl" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\MechCopter\Toucan\Toucan\uctrl.output">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>原值</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -40,6 +61,79 @@
   <si>
     <t>新值</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进比</t>
+  </si>
+  <si>
+    <t>前进比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sita0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sita1c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sita1s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sitap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMARC</t>
+  </si>
+  <si>
+    <t>桨距</t>
+  </si>
+  <si>
+    <t>旋翼轴倾角</t>
+  </si>
+  <si>
+    <t>挥舞响应</t>
+  </si>
+  <si>
+    <t>主旋翼功率</t>
+  </si>
+  <si>
+    <t>总距</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>旋翼轴alpha_s</t>
+  </si>
+  <si>
+    <t>旋翼轴theta_s</t>
+  </si>
+  <si>
+    <t>挥舞响应1s</t>
+  </si>
+  <si>
+    <t>挥舞响应1c</t>
+  </si>
+  <si>
+    <t>主旋翼功率（hp)</t>
+  </si>
+  <si>
+    <t>CAMRAD II</t>
   </si>
 </sst>
 </file>
@@ -146,6 +240,5580 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sita0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10.799899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.1143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7334999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7196999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.599299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.3614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.3317</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.500999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.842000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.331199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0975-47A2-B51A-F5D3F7FA4052}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总距</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$38:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.2084300000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6780000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.348E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0269999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10705000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16053000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18784999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.34094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.2401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.851139999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.44778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.54862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.052820000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.830730000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.516209999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0975-47A2-B51A-F5D3F7FA4052}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总距</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6159999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2330000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0890000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10705000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18723000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.755979999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.16746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.37799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.090909999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.37799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.066990000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.3445</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.1244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0975-47A2-B51A-F5D3F7FA4052}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="112052576"/>
+        <c:axId val="112048000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="112052576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112048000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="112048000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112052576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sita1c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.14230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.4799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.3599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0063</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4302999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACF8-4D77-8482-B3E285EF2084}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$38:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.30504E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0640000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10786999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13270999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16003999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$38:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.39856000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2773099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5798300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.47899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2440199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0900399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1908799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2773099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACF8-4D77-8482-B3E285EF2084}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$26:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6780000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2949999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0890000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10882</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16114999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18723000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$26:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.2440199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1578900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95694000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85646</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1578900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.54545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2344499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACF8-4D77-8482-B3E285EF2084}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="469001280"/>
+        <c:axId val="469000032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="469001280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469000032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="469000032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469001280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sita1s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.8412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4447000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0495999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3250999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.94710000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.5194000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.3647999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.4538000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.7123000000000008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-11.0716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A334-4F0E-96C0-3B49AED90984}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8559999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1259999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13395000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16064999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18726999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$38:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2509000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.96279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.37215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7815099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88836000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29292000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.9783900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.2401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A334-4F0E-96C0-3B49AED90984}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.785E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3240000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10639</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18668999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.4114800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0239199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7224900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2344499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2440199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.13397000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.3014399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.3445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A334-4F0E-96C0-3B49AED90984}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468496992"/>
+        <c:axId val="468496576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468496992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468496576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468496576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468496992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>roll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-2.2120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0781999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6101000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6015999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.0510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.4721000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.0627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.8578999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.8929</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.2159000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0F1-43FA-AA54-54BAFBA66D9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>旋翼轴theta_s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$38:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.1919500000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6009999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2720000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9960000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18726000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$38:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-2.2894899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.2222200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.2222200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.9627600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.03003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.2222200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.6162200000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.4714700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0F1-43FA-AA54-54BAFBA66D9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>旋翼轴theta_s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$26:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7700000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6630000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3339999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9960000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13267999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$26:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-1.77033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.63636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.11005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.17703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4449799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.9617199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.7559800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E0F1-43FA-AA54-54BAFBA66D9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468490336"/>
+        <c:axId val="468494496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468490336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468494496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468494496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468490336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pitch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.84850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3764000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0066999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8372000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9149000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0654000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3802000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4855999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.532400000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.5131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-291F-4D9F-A443-B87EA7F2B0A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>旋翼轴alpha_s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$38:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6089999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2880000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9589999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10700999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13256000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16114000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18668999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$39:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1988000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5351399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.18859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2456499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7543499999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2054099999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9159199999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7609600000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-291F-4D9F-A443-B87EA7F2B0A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>旋翼轴alpha_s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$26:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.15E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7949999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0210000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10763</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16051000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18784000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$27:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.78469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.77033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.08134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7846900000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5550199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7272700000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.889950000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-291F-4D9F-A443-B87EA7F2B0A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="112048832"/>
+        <c:axId val="468493248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="112048832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468493248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468493248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112048832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="uctrl.output" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,100 +6079,1419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="7" width="8.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>12.7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>1.24</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>3.41</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>10.7</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>-1.1432</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.71089999999999998</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>-3.4580000000000002</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>3.4636999999999998</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>-6.5699999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <f>B2-B3</f>
+      <c r="C4">
+        <f>C2-C3</f>
         <v>13.8432</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:G4" si="0">C2-C3</f>
+      <c r="D4">
+        <f t="shared" ref="D4:H4" si="0">D2-D3</f>
         <v>1.1718</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>2.6991000000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>14.157999999999999</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>-3.4636999999999998</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>-0.63429999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10.799899999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="D7">
+        <v>3.8412999999999999</v>
+      </c>
+      <c r="E7">
+        <v>7.3098000000000001</v>
+      </c>
+      <c r="F7">
+        <v>-2.2120000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.84850000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.02</v>
+      </c>
+      <c r="B8">
+        <v>10.5893</v>
+      </c>
+      <c r="C8">
+        <v>0.1198</v>
+      </c>
+      <c r="D8">
+        <v>3.4447000000000001</v>
+      </c>
+      <c r="E8">
+        <v>7.4428999999999998</v>
+      </c>
+      <c r="F8">
+        <v>-2.0781999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.98250000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.04</v>
+      </c>
+      <c r="B9">
+        <v>10.1143</v>
+      </c>
+      <c r="C9">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.0495999999999999</v>
+      </c>
+      <c r="E9">
+        <v>5.7478999999999996</v>
+      </c>
+      <c r="F9">
+        <v>-1.8109999999999999</v>
+      </c>
+      <c r="G9">
+        <v>1.3764000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.06</v>
+      </c>
+      <c r="B10">
+        <v>9.7334999999999994</v>
+      </c>
+      <c r="C10">
+        <v>-3.4799999999999998E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.6246</v>
+      </c>
+      <c r="E10">
+        <v>4.7403000000000004</v>
+      </c>
+      <c r="F10">
+        <v>-1.6101000000000001</v>
+      </c>
+      <c r="G10">
+        <v>2.0066999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.08</v>
+      </c>
+      <c r="B11">
+        <v>9.6067</v>
+      </c>
+      <c r="C11">
+        <v>-9.5899999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>2.0745</v>
+      </c>
+      <c r="E11">
+        <v>3.9489000000000001</v>
+      </c>
+      <c r="F11">
+        <v>-1.5447</v>
+      </c>
+      <c r="G11">
+        <v>2.8372000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>9.7196999999999996</v>
+      </c>
+      <c r="C12">
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.3250999999999999</v>
+      </c>
+      <c r="E12">
+        <v>3.5716999999999999</v>
+      </c>
+      <c r="F12">
+        <v>-1.6015999999999999</v>
+      </c>
+      <c r="G12">
+        <v>3.823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.12</v>
+      </c>
+      <c r="B13">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C13">
+        <v>-0.1173</v>
+      </c>
+      <c r="D13">
+        <v>0.34</v>
+      </c>
+      <c r="E13">
+        <v>3.5065</v>
+      </c>
+      <c r="F13">
+        <v>-1.7699</v>
+      </c>
+      <c r="G13">
+        <v>4.9149000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B14">
+        <v>10.599299999999999</v>
+      </c>
+      <c r="C14">
+        <v>-3.3599999999999998E-2</v>
+      </c>
+      <c r="D14">
+        <v>-0.94710000000000005</v>
+      </c>
+      <c r="E14">
+        <v>3.7004999999999999</v>
+      </c>
+      <c r="F14">
+        <v>-2.0510000000000002</v>
+      </c>
+      <c r="G14">
+        <v>6.0654000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.16</v>
+      </c>
+      <c r="B15">
+        <v>11.3614</v>
+      </c>
+      <c r="C15">
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="D15">
+        <v>-2.5194000000000001</v>
+      </c>
+      <c r="E15">
+        <v>4.1501000000000001</v>
+      </c>
+      <c r="F15">
+        <v>-2.4721000000000002</v>
+      </c>
+      <c r="G15">
+        <v>7.2317999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.18</v>
+      </c>
+      <c r="B16">
+        <v>12.3317</v>
+      </c>
+      <c r="C16">
+        <v>0.3387</v>
+      </c>
+      <c r="D16">
+        <v>-4.3647999999999998</v>
+      </c>
+      <c r="E16">
+        <v>4.8841999999999999</v>
+      </c>
+      <c r="F16">
+        <v>-3.0627</v>
+      </c>
+      <c r="G16">
+        <v>8.3802000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.2</v>
+      </c>
+      <c r="B17">
+        <v>13.500999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="D17">
+        <v>-6.4538000000000002</v>
+      </c>
+      <c r="E17">
+        <v>5.9101999999999997</v>
+      </c>
+      <c r="F17">
+        <v>-3.8578999999999999</v>
+      </c>
+      <c r="G17">
+        <v>9.4855999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.22</v>
+      </c>
+      <c r="B18">
+        <v>14.842000000000001</v>
+      </c>
+      <c r="C18">
+        <v>1.0063</v>
+      </c>
+      <c r="D18">
+        <v>-8.7123000000000008</v>
+      </c>
+      <c r="E18">
+        <v>7.2675999999999998</v>
+      </c>
+      <c r="F18">
+        <v>-4.8929</v>
+      </c>
+      <c r="G18">
+        <v>10.532400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.24</v>
+      </c>
+      <c r="B19">
+        <v>16.331199999999999</v>
+      </c>
+      <c r="C19">
+        <v>1.4302999999999999</v>
+      </c>
+      <c r="D19">
+        <v>-11.0716</v>
+      </c>
+      <c r="E19">
+        <v>9.0274999999999999</v>
+      </c>
+      <c r="F19">
+        <v>-6.2159000000000004</v>
+      </c>
+      <c r="G19">
+        <v>11.5131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>12.755979999999999</v>
+      </c>
+      <c r="C26">
+        <v>1.8500000000000001E-3</v>
+      </c>
+      <c r="D26">
+        <v>3.4114800000000001</v>
+      </c>
+      <c r="E26">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="F26">
+        <v>1.2440199999999999</v>
+      </c>
+      <c r="G26">
+        <v>1.15E-3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>1.7700000000000001E-3</v>
+      </c>
+      <c r="J26">
+        <v>-1.77033</v>
+      </c>
+      <c r="K26">
+        <v>1.72E-3</v>
+      </c>
+      <c r="L26">
+        <v>0.99095999999999995</v>
+      </c>
+      <c r="M26">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="N26">
+        <v>-3.5744199999999999</v>
+      </c>
+      <c r="O26">
+        <v>6.4249700000000001E-4</v>
+      </c>
+      <c r="P26">
+        <v>48.356250000000003</v>
+      </c>
+      <c r="Q26">
+        <v>36.059255625000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2.6159999999999999E-2</v>
+      </c>
+      <c r="B27">
+        <v>12.16746</v>
+      </c>
+      <c r="C27">
+        <v>2.785E-2</v>
+      </c>
+      <c r="D27">
+        <v>3.0239199999999999</v>
+      </c>
+      <c r="E27">
+        <v>2.6780000000000002E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.1578900000000001</v>
+      </c>
+      <c r="G27">
+        <v>2.7949999999999999E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.78469</v>
+      </c>
+      <c r="I27">
+        <v>2.6630000000000001E-2</v>
+      </c>
+      <c r="J27">
+        <v>-1.63636</v>
+      </c>
+      <c r="K27">
+        <v>2.8240000000000001E-2</v>
+      </c>
+      <c r="L27">
+        <v>0.29655999999999999</v>
+      </c>
+      <c r="M27">
+        <v>2.7040000000000002E-2</v>
+      </c>
+      <c r="N27">
+        <v>-3.5744199999999999</v>
+      </c>
+      <c r="O27">
+        <v>2.708E-2</v>
+      </c>
+      <c r="P27">
+        <v>43.873280000000001</v>
+      </c>
+      <c r="Q27">
+        <v>32.716304896000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5.2330000000000002E-2</v>
+      </c>
+      <c r="B28">
+        <v>11.37799</v>
+      </c>
+      <c r="C28">
+        <v>5.3240000000000003E-2</v>
+      </c>
+      <c r="D28">
+        <v>2.7224900000000001</v>
+      </c>
+      <c r="E28">
+        <v>5.2949999999999997E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.95694000000000001</v>
+      </c>
+      <c r="G28">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="H28">
+        <v>1.05263</v>
+      </c>
+      <c r="I28">
+        <v>5.3339999999999999E-2</v>
+      </c>
+      <c r="J28">
+        <v>-1.3109999999999999</v>
+      </c>
+      <c r="K28">
+        <v>5.3560000000000003E-2</v>
+      </c>
+      <c r="L28">
+        <v>-3.134E-2</v>
+      </c>
+      <c r="M28">
+        <v>5.296E-2</v>
+      </c>
+      <c r="N28">
+        <v>-3.4740000000000002</v>
+      </c>
+      <c r="O28">
+        <v>5.3420000000000002E-2</v>
+      </c>
+      <c r="P28">
+        <v>34.847580000000001</v>
+      </c>
+      <c r="Q28">
+        <v>25.985840406000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8.0890000000000004E-2</v>
+      </c>
+      <c r="B29">
+        <v>11.090909999999999</v>
+      </c>
+      <c r="C29">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D29">
+        <v>2.2344499999999998</v>
+      </c>
+      <c r="E29">
+        <v>8.0890000000000004E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.85646</v>
+      </c>
+      <c r="G29">
+        <v>8.0210000000000004E-2</v>
+      </c>
+      <c r="H29">
+        <v>1.77033</v>
+      </c>
+      <c r="I29">
+        <v>7.9960000000000003E-2</v>
+      </c>
+      <c r="J29">
+        <v>-1.11005</v>
+      </c>
+      <c r="K29">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="L29">
+        <v>3.134E-2</v>
+      </c>
+      <c r="M29">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="N29">
+        <v>-3.17753</v>
+      </c>
+      <c r="O29">
+        <v>7.9850000000000004E-2</v>
+      </c>
+      <c r="P29">
+        <v>31.141660000000002</v>
+      </c>
+      <c r="Q29">
+        <v>23.222335862000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.10705000000000001</v>
+      </c>
+      <c r="B30">
+        <v>11.37799</v>
+      </c>
+      <c r="C30">
+        <v>0.10639</v>
+      </c>
+      <c r="D30">
+        <v>1.2440199999999999</v>
+      </c>
+      <c r="E30">
+        <v>0.10882</v>
+      </c>
+      <c r="F30">
+        <v>0.85646</v>
+      </c>
+      <c r="G30">
+        <v>0.10763</v>
+      </c>
+      <c r="H30">
+        <v>3.08134</v>
+      </c>
+      <c r="I30">
+        <v>0.10668</v>
+      </c>
+      <c r="J30">
+        <v>-1.17703</v>
+      </c>
+      <c r="K30">
+        <v>0.10704</v>
+      </c>
+      <c r="L30">
+        <v>0.29655999999999999</v>
+      </c>
+      <c r="M30">
+        <v>0.10704</v>
+      </c>
+      <c r="N30">
+        <v>-2.62283</v>
+      </c>
+      <c r="O30">
+        <v>0.10757</v>
+      </c>
+      <c r="P30">
+        <v>33.592350000000003</v>
+      </c>
+      <c r="Q30">
+        <v>25.049815395000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.13313</v>
+      </c>
+      <c r="B31">
+        <v>12.066990000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.13353999999999999</v>
+      </c>
+      <c r="D31">
+        <v>-0.13397000000000001</v>
+      </c>
+      <c r="E31">
+        <v>0.13375000000000001</v>
+      </c>
+      <c r="F31">
+        <v>1.1578900000000001</v>
+      </c>
+      <c r="G31">
+        <v>0.1331</v>
+      </c>
+      <c r="H31">
+        <v>4.7846900000000003</v>
+      </c>
+      <c r="I31">
+        <v>0.13267999999999999</v>
+      </c>
+      <c r="J31">
+        <v>-1.4449799999999999</v>
+      </c>
+      <c r="K31">
+        <v>0.13356000000000001</v>
+      </c>
+      <c r="L31">
+        <v>0.66305000000000003</v>
+      </c>
+      <c r="M31">
+        <v>0.13356000000000001</v>
+      </c>
+      <c r="N31">
+        <v>-1.7381899999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.13336000000000001</v>
+      </c>
+      <c r="P31">
+        <v>41.004179999999998</v>
+      </c>
+      <c r="Q31">
+        <v>30.576817026000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.15991</v>
+      </c>
+      <c r="B32">
+        <v>13.3445</v>
+      </c>
+      <c r="C32">
+        <v>0.16016</v>
+      </c>
+      <c r="D32">
+        <v>-2.3014399999999999</v>
+      </c>
+      <c r="E32">
+        <v>0.16114999999999999</v>
+      </c>
+      <c r="F32">
+        <v>1.54545</v>
+      </c>
+      <c r="G32">
+        <v>0.16051000000000001</v>
+      </c>
+      <c r="H32">
+        <v>6.5550199999999998</v>
+      </c>
+      <c r="I32">
+        <v>0.16002</v>
+      </c>
+      <c r="J32">
+        <v>-1.9617199999999999</v>
+      </c>
+      <c r="K32">
+        <v>0.16059999999999999</v>
+      </c>
+      <c r="L32">
+        <v>1.2561800000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.16</v>
+      </c>
+      <c r="N32">
+        <v>-0.26061000000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.16098999999999999</v>
+      </c>
+      <c r="P32">
+        <v>54.51285</v>
+      </c>
+      <c r="Q32">
+        <v>40.650232245000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.18723000000000001</v>
+      </c>
+      <c r="B33">
+        <v>15.1244</v>
+      </c>
+      <c r="C33">
+        <v>0.18668999999999999</v>
+      </c>
+      <c r="D33">
+        <v>-5.3445</v>
+      </c>
+      <c r="E33">
+        <v>0.18723000000000001</v>
+      </c>
+      <c r="F33">
+        <v>2.2344499999999998</v>
+      </c>
+      <c r="G33">
+        <v>0.18784000000000001</v>
+      </c>
+      <c r="H33">
+        <v>8.7272700000000007</v>
+      </c>
+      <c r="I33">
+        <v>0.18664</v>
+      </c>
+      <c r="J33">
+        <v>-2.7559800000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.18704000000000001</v>
+      </c>
+      <c r="L33">
+        <v>2.5099499999999999</v>
+      </c>
+      <c r="M33">
+        <v>0.18764</v>
+      </c>
+      <c r="N33">
+        <v>1.70472</v>
+      </c>
+      <c r="O33">
+        <v>0.18743000000000001</v>
+      </c>
+      <c r="P33">
+        <v>75.791989999999998</v>
+      </c>
+      <c r="Q33">
+        <v>56.518086943</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>10.889950000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" t="s">
+        <v>4</v>
+      </c>
+      <c r="P37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>6.2084300000000005E-4</v>
+      </c>
+      <c r="B38">
+        <v>12.34094</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>3.2509000000000001</v>
+      </c>
+      <c r="E38">
+        <v>5.30504E-4</v>
+      </c>
+      <c r="F38">
+        <v>0.39856000000000003</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>6.1919500000000001E-4</v>
+      </c>
+      <c r="J38">
+        <v>-2.2894899999999998</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0.40738999999999997</v>
+      </c>
+      <c r="M38">
+        <v>6.0449099999999997E-4</v>
+      </c>
+      <c r="N38">
+        <v>-3.1804600000000001</v>
+      </c>
+      <c r="O38">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="P38">
+        <v>55.509230000000002</v>
+      </c>
+      <c r="Q38">
+        <v>41.393232811000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2.6780000000000002E-2</v>
+      </c>
+      <c r="B39">
+        <v>12.2401</v>
+      </c>
+      <c r="C39">
+        <v>2.8559999999999999E-2</v>
+      </c>
+      <c r="D39">
+        <v>2.96279</v>
+      </c>
+      <c r="E39">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="F39">
+        <v>1.2773099999999999</v>
+      </c>
+      <c r="G39">
+        <v>2.6089999999999999E-2</v>
+      </c>
+      <c r="H39">
+        <v>1.1988000000000001</v>
+      </c>
+      <c r="I39">
+        <v>2.6009999999999998E-2</v>
+      </c>
+      <c r="J39">
+        <v>-2.2222200000000001</v>
+      </c>
+      <c r="K39">
+        <v>2.5839999999999998E-2</v>
+      </c>
+      <c r="L39">
+        <v>-0.66944999999999999</v>
+      </c>
+      <c r="M39">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="N39">
+        <v>-3.2805200000000001</v>
+      </c>
+      <c r="O39">
+        <v>2.571E-2</v>
+      </c>
+      <c r="P39">
+        <v>54.318049999999999</v>
+      </c>
+      <c r="Q39">
+        <v>40.504969885000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>5.348E-2</v>
+      </c>
+      <c r="B40">
+        <v>11.851139999999999</v>
+      </c>
+      <c r="C40">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D40">
+        <v>2.37215</v>
+      </c>
+      <c r="E40">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="F40">
+        <v>1.5798300000000001</v>
+      </c>
+      <c r="G40">
+        <v>5.2880000000000003E-2</v>
+      </c>
+      <c r="H40">
+        <v>1.5351399999999999</v>
+      </c>
+      <c r="I40">
+        <v>5.2720000000000003E-2</v>
+      </c>
+      <c r="J40">
+        <v>-2.2222200000000001</v>
+      </c>
+      <c r="K40">
+        <v>5.2359999999999997E-2</v>
+      </c>
+      <c r="L40">
+        <v>-0.89815</v>
+      </c>
+      <c r="M40">
+        <v>5.2069999999999998E-2</v>
+      </c>
+      <c r="N40">
+        <v>-3.1518799999999998</v>
+      </c>
+      <c r="O40">
+        <v>5.142E-2</v>
+      </c>
+      <c r="P40">
+        <v>50.208460000000002</v>
+      </c>
+      <c r="Q40">
+        <v>37.440448622000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8.0269999999999994E-2</v>
+      </c>
+      <c r="B41">
+        <v>11.44778</v>
+      </c>
+      <c r="C41">
+        <v>8.1259999999999999E-2</v>
+      </c>
+      <c r="D41">
+        <v>1.7815099999999999</v>
+      </c>
+      <c r="E41">
+        <v>8.0640000000000003E-2</v>
+      </c>
+      <c r="F41">
+        <v>1.47899</v>
+      </c>
+      <c r="G41">
+        <v>7.9589999999999994E-2</v>
+      </c>
+      <c r="H41">
+        <v>2.18859</v>
+      </c>
+      <c r="I41">
+        <v>7.9960000000000003E-2</v>
+      </c>
+      <c r="J41">
+        <v>-1.9627600000000001</v>
+      </c>
+      <c r="K41">
+        <v>0.08</v>
+      </c>
+      <c r="L41">
+        <v>-0.89815</v>
+      </c>
+      <c r="M41">
+        <v>7.9269999999999993E-2</v>
+      </c>
+      <c r="N41">
+        <v>-2.8231099999999998</v>
+      </c>
+      <c r="O41">
+        <v>7.9049999999999995E-2</v>
+      </c>
+      <c r="P41">
+        <v>45.324599999999997</v>
+      </c>
+      <c r="Q41">
+        <v>33.79855422</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.10705000000000001</v>
+      </c>
+      <c r="B42">
+        <v>11.54862</v>
+      </c>
+      <c r="C42">
+        <v>0.10734</v>
+      </c>
+      <c r="D42">
+        <v>0.88836000000000004</v>
+      </c>
+      <c r="E42">
+        <v>0.10786999999999999</v>
+      </c>
+      <c r="F42">
+        <v>1.2440199999999999</v>
+      </c>
+      <c r="G42">
+        <v>0.10700999999999999</v>
+      </c>
+      <c r="H42">
+        <v>3.2456499999999999</v>
+      </c>
+      <c r="I42">
+        <v>0.10668</v>
+      </c>
+      <c r="J42">
+        <v>-2.03003</v>
+      </c>
+      <c r="K42">
+        <v>0.10592</v>
+      </c>
+      <c r="L42">
+        <v>-0.79808999999999997</v>
+      </c>
+      <c r="M42">
+        <v>0.10707999999999999</v>
+      </c>
+      <c r="N42">
+        <v>-2.2989899999999999</v>
+      </c>
+      <c r="O42">
+        <v>0.10595</v>
+      </c>
+      <c r="P42">
+        <v>44.907679999999999</v>
+      </c>
+      <c r="Q42">
+        <v>33.487656976000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.13313</v>
+      </c>
+      <c r="B43">
+        <v>12.052820000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.13395000000000001</v>
+      </c>
+      <c r="D43">
+        <v>-0.29292000000000001</v>
+      </c>
+      <c r="E43">
+        <v>0.13270999999999999</v>
+      </c>
+      <c r="F43">
+        <v>1.0900399999999999</v>
+      </c>
+      <c r="G43">
+        <v>0.13256000000000001</v>
+      </c>
+      <c r="H43">
+        <v>4.7543499999999996</v>
+      </c>
+      <c r="I43">
+        <v>0.1333</v>
+      </c>
+      <c r="J43">
+        <v>-2.2222200000000001</v>
+      </c>
+      <c r="K43">
+        <v>0.13295999999999999</v>
+      </c>
+      <c r="L43">
+        <v>-0.66944999999999999</v>
+      </c>
+      <c r="M43">
+        <v>0.13256000000000001</v>
+      </c>
+      <c r="N43">
+        <v>-1.4842200000000001</v>
+      </c>
+      <c r="O43">
+        <v>0.1323</v>
+      </c>
+      <c r="P43">
+        <v>49.017270000000003</v>
+      </c>
+      <c r="Q43">
+        <v>36.552178239000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.16053000000000001</v>
+      </c>
+      <c r="B44">
+        <v>12.830730000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.16064999999999999</v>
+      </c>
+      <c r="D44">
+        <v>-1.9783900000000001</v>
+      </c>
+      <c r="E44">
+        <v>0.16003999999999999</v>
+      </c>
+      <c r="F44">
+        <v>1.1908799999999999</v>
+      </c>
+      <c r="G44">
+        <v>0.16114000000000001</v>
+      </c>
+      <c r="H44">
+        <v>6.2054099999999996</v>
+      </c>
+      <c r="I44">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="J44">
+        <v>-2.6162200000000002</v>
+      </c>
+      <c r="K44">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="L44">
+        <v>-0.60274000000000005</v>
+      </c>
+      <c r="M44">
+        <v>0.16036</v>
+      </c>
+      <c r="N44">
+        <v>-0.37402999999999997</v>
+      </c>
+      <c r="O44">
+        <v>0.15928999999999999</v>
+      </c>
+      <c r="P44">
+        <v>58.784990000000001</v>
+      </c>
+      <c r="Q44">
+        <v>43.835967043000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.18784999999999999</v>
+      </c>
+      <c r="B45">
+        <v>14.516209999999999</v>
+      </c>
+      <c r="C45">
+        <v>0.18726999999999999</v>
+      </c>
+      <c r="D45">
+        <v>-4.2401</v>
+      </c>
+      <c r="E45">
+        <v>0.18789</v>
+      </c>
+      <c r="F45">
+        <v>1.2773099999999999</v>
+      </c>
+      <c r="G45">
+        <v>0.18668999999999999</v>
+      </c>
+      <c r="H45">
+        <v>7.9159199999999998</v>
+      </c>
+      <c r="I45">
+        <v>0.18726000000000001</v>
+      </c>
+      <c r="J45">
+        <v>-3.4714700000000001</v>
+      </c>
+      <c r="K45">
+        <v>0.18704000000000001</v>
+      </c>
+      <c r="L45">
+        <v>-0.47409000000000001</v>
+      </c>
+      <c r="M45">
+        <v>0.18756</v>
+      </c>
+      <c r="N45">
+        <v>1.22692</v>
+      </c>
+      <c r="O45">
+        <v>0.18564</v>
+      </c>
+      <c r="P45">
+        <v>76.354969999999994</v>
+      </c>
+      <c r="Q45">
+        <v>56.937901128999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>9.7609600000000007</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Toucan/trim verification.xlsx
+++ b/Toucan/trim verification.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="5640"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15015" windowHeight="5640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="uctrl.output" localSheetId="0">Sheet1!$B$8:$H$20</definedName>
+    <definedName name="uctrl.output_1" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="uctrl.output_2" localSheetId="0">Sheet1!$C$7:$I$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="uctrl" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="936" sourceFile="D:\MechCopter\Toucan\Toucan\uctrl.output">
+    <textPr prompt="0" codePage="936" sourceFile="D:\MechCopter\Toucan\Toucan\uctrl.output">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -64,10 +65,6 @@
   </si>
   <si>
     <t>前进比</t>
-  </si>
-  <si>
-    <t>前进比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>sita0</t>
@@ -134,6 +131,10 @@
   </si>
   <si>
     <t>CAMRAD II</t>
+  </si>
+  <si>
+    <t>前进比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -267,7 +268,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$6</c:f>
+              <c:f>Sheet1!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -338,48 +339,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$19</c:f>
+              <c:f>Sheet1!$C$7:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10.799899999999999</c:v>
+                  <c:v>10.802899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.5893</c:v>
+                  <c:v>10.5939</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.1143</c:v>
+                  <c:v>10.1221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7334999999999994</c:v>
+                  <c:v>9.7483000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6067</c:v>
+                  <c:v>9.6272000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7196999999999996</c:v>
+                  <c:v>9.7385000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.050000000000001</c:v>
+                  <c:v>10.0573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.599299999999999</c:v>
+                  <c:v>10.5746</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.3614</c:v>
+                  <c:v>11.288399999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.3317</c:v>
+                  <c:v>12.1967</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.500999999999999</c:v>
+                  <c:v>13.294</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.842000000000001</c:v>
+                  <c:v>14.5695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.331199999999999</c:v>
+                  <c:v>16.007400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -604,6 +605,7 @@
         <c:axId val="112052576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -794,7 +796,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$6</c:f>
+              <c:f>Sheet1!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -865,48 +867,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$19</c:f>
+              <c:f>Sheet1!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.14230000000000001</c:v>
+                  <c:v>-0.12180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1198</c:v>
+                  <c:v>-0.1638</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3499999999999999E-2</c:v>
+                  <c:v>-0.24329999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.4799999999999998E-2</c:v>
+                  <c:v>-0.31909999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.5899999999999999E-2</c:v>
+                  <c:v>-0.36009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.13500000000000001</c:v>
+                  <c:v>-0.35730000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.1173</c:v>
+                  <c:v>-0.30759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.3599999999999998E-2</c:v>
+                  <c:v>-0.21079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11849999999999999</c:v>
+                  <c:v>-7.2400000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3387</c:v>
+                  <c:v>9.5600000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64349999999999996</c:v>
+                  <c:v>0.2762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0063</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4302999999999999</c:v>
+                  <c:v>0.59889999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,6 +1133,7 @@
         <c:axId val="469001280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1321,7 +1324,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$6</c:f>
+              <c:f>Sheet1!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1392,48 +1395,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$D$19</c:f>
+              <c:f>Sheet1!$E$7:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3.8412999999999999</c:v>
+                  <c:v>3.6635</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4447000000000001</c:v>
+                  <c:v>3.2948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0495999999999999</c:v>
+                  <c:v>2.9028999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6246</c:v>
+                  <c:v>2.4561999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0745</c:v>
+                  <c:v>1.9019999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3250999999999999</c:v>
+                  <c:v>1.1933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34</c:v>
+                  <c:v>0.28749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.94710000000000005</c:v>
+                  <c:v>-0.85170000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.5194000000000001</c:v>
+                  <c:v>-2.2490999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.3647999999999998</c:v>
+                  <c:v>-3.9136000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.4538000000000002</c:v>
+                  <c:v>-5.8369</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.7123000000000008</c:v>
+                  <c:v>-7.9962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-11.0716</c:v>
+                  <c:v>-10.357100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,7 +1851,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$6</c:f>
+              <c:f>Sheet1!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1919,48 +1922,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$7:$F$19</c:f>
+              <c:f>Sheet1!$G$7:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-2.2120000000000002</c:v>
+                  <c:v>-2.2033999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.0781999999999998</c:v>
+                  <c:v>-2.0817000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.8109999999999999</c:v>
+                  <c:v>-1.8143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.6101000000000001</c:v>
+                  <c:v>-1.6039000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.5447</c:v>
+                  <c:v>-1.5362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.6015999999999999</c:v>
+                  <c:v>-1.5996999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.7699</c:v>
+                  <c:v>-1.7806</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0510000000000002</c:v>
+                  <c:v>-2.0760000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.4721000000000002</c:v>
+                  <c:v>-2.4887000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.0627</c:v>
+                  <c:v>-3.0246</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.8578999999999999</c:v>
+                  <c:v>-3.6926000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.8929</c:v>
+                  <c:v>-4.5022000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.2159000000000004</c:v>
+                  <c:v>-5.4638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,7 +1980,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$37</c:f>
+              <c:f>Sheet1!$K$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2000,7 +2003,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$38:$I$45</c:f>
+              <c:f>Sheet1!$J$38:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2033,7 +2036,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$38:$J$45</c:f>
+              <c:f>Sheet1!$K$38:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2076,7 +2079,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$25</c:f>
+              <c:f>Sheet1!$K$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2099,7 +2102,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$26:$I$33</c:f>
+              <c:f>Sheet1!$J$26:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2132,7 +2135,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$26:$J$33</c:f>
+              <c:f>Sheet1!$K$26:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2375,7 +2378,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$6</c:f>
+              <c:f>Sheet1!$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2446,7 +2449,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$7:$G$19</c:f>
+              <c:f>Sheet1!$H$7:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2475,19 +2478,19 @@
                   <c:v>6.0654000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2317999999999998</c:v>
+                  <c:v>7.2319000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3802000000000003</c:v>
+                  <c:v>8.3801000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4855999999999998</c:v>
+                  <c:v>9.4850999999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.532400000000001</c:v>
+                  <c:v>10.5304</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.5131</c:v>
+                  <c:v>11.507300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2504,7 +2507,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$38</c:f>
+              <c:f>Sheet1!$I$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2560,7 +2563,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$39:$H$46</c:f>
+              <c:f>Sheet1!$I$38:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2603,7 +2606,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$26</c:f>
+              <c:f>Sheet1!$I$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2659,7 +2662,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$27:$H$34</c:f>
+              <c:f>Sheet1!$I$26:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5662,15 +5665,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5692,15 +5695,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5721,16 +5724,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5751,16 +5754,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5781,16 +5784,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5813,7 +5816,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="uctrl.output" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="uctrl.output_2" growShrinkType="insertClear" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6079,21 +6082,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="7" width="8.5" customWidth="1"/>
+    <col min="2" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="8" width="8.5" customWidth="1"/>
+    <col min="10" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="14" max="15" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -6101,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -6120,11 +6127,12 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -6143,11 +6151,12 @@
       <c r="G3" s="2">
         <v>3.4636999999999998</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
         <v>-6.5699999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -6156,7 +6165,7 @@
         <v>13.8432</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:H4" si="0">D2-D3</f>
+        <f t="shared" ref="D4:I4" si="0">D2-D3</f>
         <v>1.1718</v>
       </c>
       <c r="E4">
@@ -6171,400 +6180,403 @@
         <f t="shared" si="0"/>
         <v>-3.4636999999999998</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>-0.63429999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>10.799899999999999</v>
-      </c>
       <c r="C7">
-        <v>0.14230000000000001</v>
+        <v>10.802899999999999</v>
       </c>
       <c r="D7">
-        <v>3.8412999999999999</v>
+        <v>-0.12180000000000001</v>
       </c>
       <c r="E7">
-        <v>7.3098000000000001</v>
+        <v>3.6635</v>
       </c>
       <c r="F7">
-        <v>-2.2120000000000002</v>
+        <v>7.2869999999999999</v>
       </c>
       <c r="G7">
+        <v>-2.2033999999999998</v>
+      </c>
+      <c r="H7">
         <v>0.84850000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.02</v>
       </c>
-      <c r="B8">
-        <v>10.5893</v>
-      </c>
       <c r="C8">
-        <v>0.1198</v>
+        <v>10.5939</v>
       </c>
       <c r="D8">
-        <v>3.4447000000000001</v>
+        <v>-0.1638</v>
       </c>
       <c r="E8">
-        <v>7.4428999999999998</v>
+        <v>3.2948</v>
       </c>
       <c r="F8">
-        <v>-2.0781999999999998</v>
+        <v>7.4523999999999999</v>
       </c>
       <c r="G8">
+        <v>-2.0817000000000001</v>
+      </c>
+      <c r="H8">
         <v>0.98250000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.04</v>
       </c>
-      <c r="B9">
-        <v>10.1143</v>
-      </c>
       <c r="C9">
-        <v>5.3499999999999999E-2</v>
+        <v>10.1221</v>
       </c>
       <c r="D9">
-        <v>3.0495999999999999</v>
+        <v>-0.24329999999999999</v>
       </c>
       <c r="E9">
-        <v>5.7478999999999996</v>
+        <v>2.9028999999999998</v>
       </c>
       <c r="F9">
-        <v>-1.8109999999999999</v>
+        <v>5.7549000000000001</v>
       </c>
       <c r="G9">
+        <v>-1.8143</v>
+      </c>
+      <c r="H9">
         <v>1.3764000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.06</v>
       </c>
-      <c r="B10">
-        <v>9.7334999999999994</v>
-      </c>
       <c r="C10">
-        <v>-3.4799999999999998E-2</v>
+        <v>9.7483000000000004</v>
       </c>
       <c r="D10">
-        <v>2.6246</v>
+        <v>-0.31909999999999999</v>
       </c>
       <c r="E10">
-        <v>4.7403000000000004</v>
+        <v>2.4561999999999999</v>
       </c>
       <c r="F10">
-        <v>-1.6101000000000001</v>
+        <v>4.7237999999999998</v>
       </c>
       <c r="G10">
+        <v>-1.6039000000000001</v>
+      </c>
+      <c r="H10">
         <v>2.0066999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.08</v>
       </c>
-      <c r="B11">
-        <v>9.6067</v>
-      </c>
       <c r="C11">
-        <v>-9.5899999999999999E-2</v>
+        <v>9.6272000000000002</v>
       </c>
       <c r="D11">
-        <v>2.0745</v>
+        <v>-0.36009999999999998</v>
       </c>
       <c r="E11">
-        <v>3.9489000000000001</v>
+        <v>1.9019999999999999</v>
       </c>
       <c r="F11">
-        <v>-1.5447</v>
+        <v>3.9278</v>
       </c>
       <c r="G11">
+        <v>-1.5362</v>
+      </c>
+      <c r="H11">
         <v>2.8372000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.1</v>
       </c>
-      <c r="B12">
-        <v>9.7196999999999996</v>
-      </c>
       <c r="C12">
-        <v>-0.13500000000000001</v>
+        <v>9.7385000000000002</v>
       </c>
       <c r="D12">
-        <v>1.3250999999999999</v>
+        <v>-0.35730000000000001</v>
       </c>
       <c r="E12">
-        <v>3.5716999999999999</v>
+        <v>1.1933</v>
       </c>
       <c r="F12">
-        <v>-1.6015999999999999</v>
+        <v>3.5672000000000001</v>
       </c>
       <c r="G12">
+        <v>-1.5996999999999999</v>
+      </c>
+      <c r="H12">
         <v>3.823</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.12</v>
       </c>
-      <c r="B13">
-        <v>10.050000000000001</v>
-      </c>
       <c r="C13">
-        <v>-0.1173</v>
+        <v>10.0573</v>
       </c>
       <c r="D13">
-        <v>0.34</v>
+        <v>-0.30759999999999998</v>
       </c>
       <c r="E13">
-        <v>3.5065</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="F13">
-        <v>-1.7699</v>
+        <v>3.5289999999999999</v>
       </c>
       <c r="G13">
+        <v>-1.7806</v>
+      </c>
+      <c r="H13">
         <v>4.9149000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B14">
-        <v>10.599299999999999</v>
-      </c>
       <c r="C14">
-        <v>-3.3599999999999998E-2</v>
+        <v>10.5746</v>
       </c>
       <c r="D14">
-        <v>-0.94710000000000005</v>
+        <v>-0.21079999999999999</v>
       </c>
       <c r="E14">
-        <v>3.7004999999999999</v>
+        <v>-0.85170000000000001</v>
       </c>
       <c r="F14">
-        <v>-2.0510000000000002</v>
+        <v>3.7509000000000001</v>
       </c>
       <c r="G14">
+        <v>-2.0760000000000001</v>
+      </c>
+      <c r="H14">
         <v>6.0654000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.16</v>
       </c>
-      <c r="B15">
-        <v>11.3614</v>
-      </c>
       <c r="C15">
-        <v>0.11849999999999999</v>
+        <v>11.288399999999999</v>
       </c>
       <c r="D15">
-        <v>-2.5194000000000001</v>
+        <v>-7.2400000000000006E-2</v>
       </c>
       <c r="E15">
-        <v>4.1501000000000001</v>
+        <v>-2.2490999999999999</v>
       </c>
       <c r="F15">
-        <v>-2.4721000000000002</v>
+        <v>4.1814999999999998</v>
       </c>
       <c r="G15">
-        <v>7.2317999999999998</v>
+        <v>-2.4887000000000001</v>
+      </c>
+      <c r="H15">
+        <v>7.2319000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.18</v>
       </c>
-      <c r="B16">
-        <v>12.3317</v>
-      </c>
       <c r="C16">
-        <v>0.3387</v>
+        <v>12.1967</v>
       </c>
       <c r="D16">
-        <v>-4.3647999999999998</v>
+        <v>9.5600000000000004E-2</v>
       </c>
       <c r="E16">
-        <v>4.8841999999999999</v>
+        <v>-3.9136000000000002</v>
       </c>
       <c r="F16">
-        <v>-3.0627</v>
+        <v>4.8159999999999998</v>
       </c>
       <c r="G16">
-        <v>8.3802000000000003</v>
+        <v>-3.0246</v>
+      </c>
+      <c r="H16">
+        <v>8.3801000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.2</v>
       </c>
-      <c r="B17">
-        <v>13.500999999999999</v>
-      </c>
       <c r="C17">
-        <v>0.64349999999999996</v>
+        <v>13.294</v>
       </c>
       <c r="D17">
-        <v>-6.4538000000000002</v>
+        <v>0.2762</v>
       </c>
       <c r="E17">
-        <v>5.9101999999999997</v>
+        <v>-5.8369</v>
       </c>
       <c r="F17">
-        <v>-3.8578999999999999</v>
+        <v>5.6268000000000002</v>
       </c>
       <c r="G17">
-        <v>9.4855999999999998</v>
+        <v>-3.6926000000000001</v>
+      </c>
+      <c r="H17">
+        <v>9.4850999999999992</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.22</v>
       </c>
-      <c r="B18">
-        <v>14.842000000000001</v>
-      </c>
       <c r="C18">
-        <v>1.0063</v>
+        <v>14.5695</v>
       </c>
       <c r="D18">
-        <v>-8.7123000000000008</v>
+        <v>0.45</v>
       </c>
       <c r="E18">
-        <v>7.2675999999999998</v>
+        <v>-7.9962</v>
       </c>
       <c r="F18">
-        <v>-4.8929</v>
+        <v>6.6230000000000002</v>
       </c>
       <c r="G18">
-        <v>10.532400000000001</v>
+        <v>-4.5022000000000002</v>
+      </c>
+      <c r="H18">
+        <v>10.5304</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.24</v>
       </c>
-      <c r="B19">
-        <v>16.331199999999999</v>
-      </c>
       <c r="C19">
-        <v>1.4302999999999999</v>
+        <v>16.007400000000001</v>
       </c>
       <c r="D19">
-        <v>-11.0716</v>
+        <v>0.59889999999999999</v>
       </c>
       <c r="E19">
-        <v>9.0274999999999999</v>
+        <v>-10.357100000000001</v>
       </c>
       <c r="F19">
-        <v>-6.2159000000000004</v>
+        <v>7.8253000000000004</v>
       </c>
       <c r="G19">
-        <v>11.5131</v>
+        <v>-5.4638</v>
+      </c>
+      <c r="H19">
+        <v>11.507300000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" t="s">
-        <v>15</v>
-      </c>
-      <c r="O24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
         <v>4</v>
       </c>
       <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
         <v>4</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
         <v>21</v>
       </c>
-      <c r="K25" t="s">
+      <c r="N25" t="s">
         <v>4</v>
       </c>
-      <c r="L25" t="s">
+      <c r="O25" t="s">
         <v>22</v>
       </c>
-      <c r="M25" t="s">
+      <c r="P25" t="s">
         <v>4</v>
       </c>
-      <c r="N25" t="s">
+      <c r="Q25" t="s">
         <v>23</v>
       </c>
-      <c r="O25" t="s">
-        <v>4</v>
-      </c>
-      <c r="P25" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -6586,38 +6598,38 @@
       <c r="G26">
         <v>1.15E-3</v>
       </c>
-      <c r="H26" t="s">
-        <v>20</v>
-      </c>
       <c r="I26">
+        <v>0.78469</v>
+      </c>
+      <c r="J26">
         <v>1.7700000000000001E-3</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-1.77033</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1.72E-3</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.99095999999999995</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-3.5744199999999999</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>6.4249700000000001E-4</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>48.356250000000003</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>36.059255625000006</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2.6159999999999999E-2</v>
       </c>
@@ -6639,38 +6651,38 @@
       <c r="G27">
         <v>2.7949999999999999E-2</v>
       </c>
-      <c r="H27">
-        <v>0.78469</v>
-      </c>
       <c r="I27">
+        <v>1.05263</v>
+      </c>
+      <c r="J27">
         <v>2.6630000000000001E-2</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-1.63636</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>2.8240000000000001E-2</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.29655999999999999</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2.7040000000000002E-2</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-3.5744199999999999</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>2.708E-2</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>43.873280000000001</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>32.716304896000004</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5.2330000000000002E-2</v>
       </c>
@@ -6692,38 +6704,38 @@
       <c r="G28">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="H28">
-        <v>1.05263</v>
-      </c>
       <c r="I28">
+        <v>1.77033</v>
+      </c>
+      <c r="J28">
         <v>5.3339999999999999E-2</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-1.3109999999999999</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>5.3560000000000003E-2</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-3.134E-2</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>5.296E-2</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-3.4740000000000002</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>5.3420000000000002E-2</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>34.847580000000001</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>25.985840406000001</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8.0890000000000004E-2</v>
       </c>
@@ -6745,38 +6757,38 @@
       <c r="G29">
         <v>8.0210000000000004E-2</v>
       </c>
-      <c r="H29">
-        <v>1.77033</v>
-      </c>
       <c r="I29">
+        <v>3.08134</v>
+      </c>
+      <c r="J29">
         <v>7.9960000000000003E-2</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-1.11005</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>3.134E-2</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>8.1199999999999994E-2</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-3.17753</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>7.9850000000000004E-2</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>31.141660000000002</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>23.222335862000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.10705000000000001</v>
       </c>
@@ -6798,38 +6810,38 @@
       <c r="G30">
         <v>0.10763</v>
       </c>
-      <c r="H30">
-        <v>3.08134</v>
-      </c>
       <c r="I30">
+        <v>4.7846900000000003</v>
+      </c>
+      <c r="J30">
         <v>0.10668</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-1.17703</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.10704</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.29655999999999999</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.10704</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-2.62283</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.10757</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>33.592350000000003</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>25.049815395000003</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.13313</v>
       </c>
@@ -6851,38 +6863,38 @@
       <c r="G31">
         <v>0.1331</v>
       </c>
-      <c r="H31">
-        <v>4.7846900000000003</v>
-      </c>
       <c r="I31">
+        <v>6.5550199999999998</v>
+      </c>
+      <c r="J31">
         <v>0.13267999999999999</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-1.4449799999999999</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.13356000000000001</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.66305000000000003</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.13356000000000001</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-1.7381899999999999</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.13336000000000001</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>41.004179999999998</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>30.576817026000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.15991</v>
       </c>
@@ -6904,38 +6916,38 @@
       <c r="G32">
         <v>0.16051000000000001</v>
       </c>
-      <c r="H32">
-        <v>6.5550199999999998</v>
-      </c>
       <c r="I32">
+        <v>8.7272700000000007</v>
+      </c>
+      <c r="J32">
         <v>0.16002</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-1.9617199999999999</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.16059999999999999</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>1.2561800000000001</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.16</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-0.26061000000000001</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.16098999999999999</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>54.51285</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>40.650232245000005</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.18723000000000001</v>
       </c>
@@ -6957,109 +6969,107 @@
       <c r="G33">
         <v>0.18784000000000001</v>
       </c>
-      <c r="H33">
-        <v>8.7272700000000007</v>
-      </c>
       <c r="I33">
+        <v>10.889950000000001</v>
+      </c>
+      <c r="J33">
         <v>0.18664</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-2.7559800000000001</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.18704000000000001</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>2.5099499999999999</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.18764</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>1.70472</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.18743000000000001</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>75.791989999999998</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>56.518086943</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H34">
-        <v>10.889950000000001</v>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>25</v>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" t="s">
-        <v>15</v>
-      </c>
-      <c r="O36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
         <v>4</v>
       </c>
       <c r="I37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
         <v>4</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" t="s">
         <v>21</v>
       </c>
-      <c r="K37" t="s">
+      <c r="N37" t="s">
         <v>4</v>
       </c>
-      <c r="L37" t="s">
+      <c r="O37" t="s">
         <v>22</v>
       </c>
-      <c r="M37" t="s">
+      <c r="P37" t="s">
         <v>4</v>
       </c>
-      <c r="N37" t="s">
+      <c r="Q37" t="s">
         <v>23</v>
       </c>
-      <c r="O37" t="s">
-        <v>4</v>
-      </c>
-      <c r="P37" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6.2084300000000005E-4</v>
       </c>
@@ -7081,38 +7091,38 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" t="s">
-        <v>20</v>
-      </c>
       <c r="I38">
+        <v>1.1988000000000001</v>
+      </c>
+      <c r="J38">
         <v>6.1919500000000001E-4</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>-2.2894899999999998</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.40738999999999997</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>6.0449099999999997E-4</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>-3.1804600000000001</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>1.2800000000000001E-3</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>55.509230000000002</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>41.393232811000004</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2.6780000000000002E-2</v>
       </c>
@@ -7134,38 +7144,38 @@
       <c r="G39">
         <v>2.6089999999999999E-2</v>
       </c>
-      <c r="H39">
-        <v>1.1988000000000001</v>
-      </c>
       <c r="I39">
+        <v>1.5351399999999999</v>
+      </c>
+      <c r="J39">
         <v>2.6009999999999998E-2</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>-2.2222200000000001</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>2.5839999999999998E-2</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>-0.66944999999999999</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>-3.2805200000000001</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>2.571E-2</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>54.318049999999999</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>40.504969885000001</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5.348E-2</v>
       </c>
@@ -7187,38 +7197,38 @@
       <c r="G40">
         <v>5.2880000000000003E-2</v>
       </c>
-      <c r="H40">
-        <v>1.5351399999999999</v>
-      </c>
       <c r="I40">
+        <v>2.18859</v>
+      </c>
+      <c r="J40">
         <v>5.2720000000000003E-2</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>-2.2222200000000001</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>5.2359999999999997E-2</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>-0.89815</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>5.2069999999999998E-2</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>-3.1518799999999998</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>5.142E-2</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>50.208460000000002</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>37.440448622000005</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>8.0269999999999994E-2</v>
       </c>
@@ -7240,38 +7250,38 @@
       <c r="G41">
         <v>7.9589999999999994E-2</v>
       </c>
-      <c r="H41">
-        <v>2.18859</v>
-      </c>
       <c r="I41">
+        <v>3.2456499999999999</v>
+      </c>
+      <c r="J41">
         <v>7.9960000000000003E-2</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>-1.9627600000000001</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>0.08</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>-0.89815</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>7.9269999999999993E-2</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>-2.8231099999999998</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>7.9049999999999995E-2</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>45.324599999999997</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>33.79855422</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.10705000000000001</v>
       </c>
@@ -7293,38 +7303,38 @@
       <c r="G42">
         <v>0.10700999999999999</v>
       </c>
-      <c r="H42">
-        <v>3.2456499999999999</v>
-      </c>
       <c r="I42">
+        <v>4.7543499999999996</v>
+      </c>
+      <c r="J42">
         <v>0.10668</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>-2.03003</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>0.10592</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>-0.79808999999999997</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.10707999999999999</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>-2.2989899999999999</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>0.10595</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>44.907679999999999</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>33.487656976000004</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.13313</v>
       </c>
@@ -7346,38 +7356,38 @@
       <c r="G43">
         <v>0.13256000000000001</v>
       </c>
-      <c r="H43">
-        <v>4.7543499999999996</v>
-      </c>
       <c r="I43">
+        <v>6.2054099999999996</v>
+      </c>
+      <c r="J43">
         <v>0.1333</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>-2.2222200000000001</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>0.13295999999999999</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>-0.66944999999999999</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>0.13256000000000001</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>-1.4842200000000001</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>0.1323</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>49.017270000000003</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>36.552178239000007</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.16053000000000001</v>
       </c>
@@ -7399,38 +7409,38 @@
       <c r="G44">
         <v>0.16114000000000001</v>
       </c>
-      <c r="H44">
-        <v>6.2054099999999996</v>
-      </c>
       <c r="I44">
+        <v>7.9159199999999998</v>
+      </c>
+      <c r="J44">
         <v>0.15939999999999999</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>-2.6162200000000002</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>0.15939999999999999</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>-0.60274000000000005</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>0.16036</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>-0.37402999999999997</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>0.15928999999999999</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>58.784990000000001</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>43.835967043000004</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.18784999999999999</v>
       </c>
@@ -7452,40 +7462,35 @@
       <c r="G45">
         <v>0.18668999999999999</v>
       </c>
-      <c r="H45">
-        <v>7.9159199999999998</v>
-      </c>
       <c r="I45">
+        <v>9.7609600000000007</v>
+      </c>
+      <c r="J45">
         <v>0.18726000000000001</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>-3.4714700000000001</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>0.18704000000000001</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>-0.47409000000000001</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.18756</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>1.22692</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>0.18564</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>76.354969999999994</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>56.937901128999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H46">
-        <v>9.7609600000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Toucan/trim verification.xlsx
+++ b/Toucan/trim verification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15015" windowHeight="5640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="5640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,43 +344,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10.802899999999999</c:v>
+                  <c:v>10.802892999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.5939</c:v>
+                  <c:v>10.593875000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.1221</c:v>
+                  <c:v>10.122073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7483000000000004</c:v>
+                  <c:v>9.7483240000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6272000000000002</c:v>
+                  <c:v>9.6271579999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7385000000000002</c:v>
+                  <c:v>9.7385289999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0573</c:v>
+                  <c:v>10.057275000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.5746</c:v>
+                  <c:v>10.574567</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.288399999999999</c:v>
+                  <c:v>11.288357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.1967</c:v>
+                  <c:v>12.196736</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.294</c:v>
+                  <c:v>13.294015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.5695</c:v>
+                  <c:v>14.569535</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.007400000000001</c:v>
+                  <c:v>16.007441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,43 +872,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-0.12180000000000001</c:v>
+                  <c:v>-0.121794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.1638</c:v>
+                  <c:v>-0.163772</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.24329999999999999</c:v>
+                  <c:v>-0.24327499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.31909999999999999</c:v>
+                  <c:v>-0.31909199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.36009999999999998</c:v>
+                  <c:v>-0.36008299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.35730000000000001</c:v>
+                  <c:v>-0.35733900000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.30759999999999998</c:v>
+                  <c:v>-0.307562</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.21079999999999999</c:v>
+                  <c:v>-0.210761</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.2400000000000006E-2</c:v>
+                  <c:v>-7.2406999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5600000000000004E-2</c:v>
+                  <c:v>9.5625000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2762</c:v>
+                  <c:v>0.27623300000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45</c:v>
+                  <c:v>0.44997999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.59889999999999999</c:v>
+                  <c:v>0.59889099999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,43 +1400,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3.6635</c:v>
+                  <c:v>3.663513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2948</c:v>
+                  <c:v>3.2947679999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9028999999999998</c:v>
+                  <c:v>2.902873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4561999999999999</c:v>
+                  <c:v>2.4561899999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9019999999999999</c:v>
+                  <c:v>1.9019820000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1933</c:v>
+                  <c:v>1.193311</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28749999999999998</c:v>
+                  <c:v>0.287545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.85170000000000001</c:v>
+                  <c:v>-0.85166299999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.2490999999999999</c:v>
+                  <c:v>-2.2491020000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.9136000000000002</c:v>
+                  <c:v>-3.913643</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.8369</c:v>
+                  <c:v>-5.8369350000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.9962</c:v>
+                  <c:v>-7.9961799999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-10.357100000000001</c:v>
+                  <c:v>-10.357112000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1927,43 +1927,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-2.2033999999999998</c:v>
+                  <c:v>-2.2033610000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.0817000000000001</c:v>
+                  <c:v>-2.0816650000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.8143</c:v>
+                  <c:v>-1.8142510000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.6039000000000001</c:v>
+                  <c:v>-1.603861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.5362</c:v>
+                  <c:v>-1.53623</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5996999999999999</c:v>
+                  <c:v>-1.599683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.7806</c:v>
+                  <c:v>-1.780645</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0760000000000001</c:v>
+                  <c:v>-2.076038</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.4887000000000001</c:v>
+                  <c:v>-2.4886689999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.0246</c:v>
+                  <c:v>-3.0246499999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.6926000000000001</c:v>
+                  <c:v>-3.692631</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.5022000000000002</c:v>
+                  <c:v>-4.5021579999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.4638</c:v>
+                  <c:v>-5.4637729999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,43 +2454,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.84850000000000003</c:v>
+                  <c:v>0.84848900000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98250000000000004</c:v>
+                  <c:v>0.98249799999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3764000000000001</c:v>
+                  <c:v>1.3763920000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0066999999999999</c:v>
+                  <c:v>2.0067010000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8372000000000002</c:v>
+                  <c:v>2.8372280000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.823</c:v>
+                  <c:v>3.8229540000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9149000000000003</c:v>
+                  <c:v>4.9149339999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0654000000000003</c:v>
+                  <c:v>6.0653709999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2319000000000004</c:v>
+                  <c:v>7.2318619999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3801000000000005</c:v>
+                  <c:v>8.3801279999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4850999999999992</c:v>
+                  <c:v>9.4850580000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.5304</c:v>
+                  <c:v>10.530354000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.507300000000001</c:v>
+                  <c:v>11.507334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6084,16 +6084,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="8" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
     <col min="10" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" customWidth="1"/>
@@ -6213,22 +6214,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.802899999999999</v>
+        <v>10.802892999999999</v>
       </c>
       <c r="D7">
-        <v>-0.12180000000000001</v>
+        <v>-0.121794</v>
       </c>
       <c r="E7">
-        <v>3.6635</v>
+        <v>3.663513</v>
       </c>
       <c r="F7">
-        <v>7.2869999999999999</v>
+        <v>7.2870030000000003</v>
       </c>
       <c r="G7">
-        <v>-2.2033999999999998</v>
+        <v>-2.2033610000000001</v>
       </c>
       <c r="H7">
-        <v>0.84850000000000003</v>
+        <v>0.84848900000000005</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6236,22 +6237,22 @@
         <v>0.02</v>
       </c>
       <c r="C8">
-        <v>10.5939</v>
+        <v>10.593875000000001</v>
       </c>
       <c r="D8">
-        <v>-0.1638</v>
+        <v>-0.163772</v>
       </c>
       <c r="E8">
-        <v>3.2948</v>
+        <v>3.2947679999999999</v>
       </c>
       <c r="F8">
-        <v>7.4523999999999999</v>
+        <v>7.452375</v>
       </c>
       <c r="G8">
-        <v>-2.0817000000000001</v>
+        <v>-2.0816650000000001</v>
       </c>
       <c r="H8">
-        <v>0.98250000000000004</v>
+        <v>0.98249799999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6259,22 +6260,22 @@
         <v>0.04</v>
       </c>
       <c r="C9">
-        <v>10.1221</v>
+        <v>10.122073</v>
       </c>
       <c r="D9">
-        <v>-0.24329999999999999</v>
+        <v>-0.24327499999999999</v>
       </c>
       <c r="E9">
-        <v>2.9028999999999998</v>
+        <v>2.902873</v>
       </c>
       <c r="F9">
-        <v>5.7549000000000001</v>
+        <v>5.7549020000000004</v>
       </c>
       <c r="G9">
-        <v>-1.8143</v>
+        <v>-1.8142510000000001</v>
       </c>
       <c r="H9">
-        <v>1.3764000000000001</v>
+        <v>1.3763920000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6282,22 +6283,22 @@
         <v>0.06</v>
       </c>
       <c r="C10">
-        <v>9.7483000000000004</v>
+        <v>9.7483240000000002</v>
       </c>
       <c r="D10">
-        <v>-0.31909999999999999</v>
+        <v>-0.31909199999999999</v>
       </c>
       <c r="E10">
-        <v>2.4561999999999999</v>
+        <v>2.4561899999999999</v>
       </c>
       <c r="F10">
-        <v>4.7237999999999998</v>
+        <v>4.7237609999999997</v>
       </c>
       <c r="G10">
-        <v>-1.6039000000000001</v>
+        <v>-1.603861</v>
       </c>
       <c r="H10">
-        <v>2.0066999999999999</v>
+        <v>2.0067010000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -6305,22 +6306,22 @@
         <v>0.08</v>
       </c>
       <c r="C11">
-        <v>9.6272000000000002</v>
+        <v>9.6271579999999997</v>
       </c>
       <c r="D11">
-        <v>-0.36009999999999998</v>
+        <v>-0.36008299999999999</v>
       </c>
       <c r="E11">
-        <v>1.9019999999999999</v>
+        <v>1.9019820000000001</v>
       </c>
       <c r="F11">
-        <v>3.9278</v>
+        <v>3.9278420000000001</v>
       </c>
       <c r="G11">
-        <v>-1.5362</v>
+        <v>-1.53623</v>
       </c>
       <c r="H11">
-        <v>2.8372000000000002</v>
+        <v>2.8372280000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -6328,22 +6329,22 @@
         <v>0.1</v>
       </c>
       <c r="C12">
-        <v>9.7385000000000002</v>
+        <v>9.7385289999999998</v>
       </c>
       <c r="D12">
-        <v>-0.35730000000000001</v>
+        <v>-0.35733900000000002</v>
       </c>
       <c r="E12">
-        <v>1.1933</v>
+        <v>1.193311</v>
       </c>
       <c r="F12">
-        <v>3.5672000000000001</v>
+        <v>3.567199</v>
       </c>
       <c r="G12">
-        <v>-1.5996999999999999</v>
+        <v>-1.599683</v>
       </c>
       <c r="H12">
-        <v>3.823</v>
+        <v>3.8229540000000002</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -6351,22 +6352,22 @@
         <v>0.12</v>
       </c>
       <c r="C13">
-        <v>10.0573</v>
+        <v>10.057275000000001</v>
       </c>
       <c r="D13">
-        <v>-0.30759999999999998</v>
+        <v>-0.307562</v>
       </c>
       <c r="E13">
-        <v>0.28749999999999998</v>
+        <v>0.287545</v>
       </c>
       <c r="F13">
-        <v>3.5289999999999999</v>
+        <v>3.5289820000000001</v>
       </c>
       <c r="G13">
-        <v>-1.7806</v>
+        <v>-1.780645</v>
       </c>
       <c r="H13">
-        <v>4.9149000000000003</v>
+        <v>4.9149339999999997</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -6374,22 +6375,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C14">
-        <v>10.5746</v>
+        <v>10.574567</v>
       </c>
       <c r="D14">
-        <v>-0.21079999999999999</v>
+        <v>-0.210761</v>
       </c>
       <c r="E14">
-        <v>-0.85170000000000001</v>
+        <v>-0.85166299999999995</v>
       </c>
       <c r="F14">
-        <v>3.7509000000000001</v>
+        <v>3.7508789999999999</v>
       </c>
       <c r="G14">
-        <v>-2.0760000000000001</v>
+        <v>-2.076038</v>
       </c>
       <c r="H14">
-        <v>6.0654000000000003</v>
+        <v>6.0653709999999998</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -6397,22 +6398,22 @@
         <v>0.16</v>
       </c>
       <c r="C15">
-        <v>11.288399999999999</v>
+        <v>11.288357</v>
       </c>
       <c r="D15">
-        <v>-7.2400000000000006E-2</v>
+        <v>-7.2406999999999999E-2</v>
       </c>
       <c r="E15">
-        <v>-2.2490999999999999</v>
+        <v>-2.2491020000000002</v>
       </c>
       <c r="F15">
-        <v>4.1814999999999998</v>
+        <v>4.1815059999999997</v>
       </c>
       <c r="G15">
-        <v>-2.4887000000000001</v>
+        <v>-2.4886689999999998</v>
       </c>
       <c r="H15">
-        <v>7.2319000000000004</v>
+        <v>7.2318619999999996</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -6420,22 +6421,22 @@
         <v>0.18</v>
       </c>
       <c r="C16">
-        <v>12.1967</v>
+        <v>12.196736</v>
       </c>
       <c r="D16">
-        <v>9.5600000000000004E-2</v>
+        <v>9.5625000000000002E-2</v>
       </c>
       <c r="E16">
-        <v>-3.9136000000000002</v>
+        <v>-3.913643</v>
       </c>
       <c r="F16">
-        <v>4.8159999999999998</v>
+        <v>4.8160400000000001</v>
       </c>
       <c r="G16">
-        <v>-3.0246</v>
+        <v>-3.0246499999999998</v>
       </c>
       <c r="H16">
-        <v>8.3801000000000005</v>
+        <v>8.3801279999999991</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -6443,22 +6444,22 @@
         <v>0.2</v>
       </c>
       <c r="C17">
-        <v>13.294</v>
+        <v>13.294015</v>
       </c>
       <c r="D17">
-        <v>0.2762</v>
+        <v>0.27623300000000001</v>
       </c>
       <c r="E17">
-        <v>-5.8369</v>
+        <v>-5.8369350000000004</v>
       </c>
       <c r="F17">
-        <v>5.6268000000000002</v>
+        <v>5.6267639999999997</v>
       </c>
       <c r="G17">
-        <v>-3.6926000000000001</v>
+        <v>-3.692631</v>
       </c>
       <c r="H17">
-        <v>9.4850999999999992</v>
+        <v>9.4850580000000004</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -6466,22 +6467,22 @@
         <v>0.22</v>
       </c>
       <c r="C18">
-        <v>14.5695</v>
+        <v>14.569535</v>
       </c>
       <c r="D18">
-        <v>0.45</v>
+        <v>0.44997999999999999</v>
       </c>
       <c r="E18">
-        <v>-7.9962</v>
+        <v>-7.9961799999999998</v>
       </c>
       <c r="F18">
-        <v>6.6230000000000002</v>
+        <v>6.6229820000000004</v>
       </c>
       <c r="G18">
-        <v>-4.5022000000000002</v>
+        <v>-4.5021579999999997</v>
       </c>
       <c r="H18">
-        <v>10.5304</v>
+        <v>10.530354000000001</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -6489,22 +6490,22 @@
         <v>0.24</v>
       </c>
       <c r="C19">
-        <v>16.007400000000001</v>
+        <v>16.007441</v>
       </c>
       <c r="D19">
-        <v>0.59889999999999999</v>
+        <v>0.59889099999999995</v>
       </c>
       <c r="E19">
-        <v>-10.357100000000001</v>
+        <v>-10.357112000000001</v>
       </c>
       <c r="F19">
-        <v>7.8253000000000004</v>
+        <v>7.8252740000000003</v>
       </c>
       <c r="G19">
-        <v>-5.4638</v>
+        <v>-5.4637729999999998</v>
       </c>
       <c r="H19">
-        <v>11.507300000000001</v>
+        <v>11.507334</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
